--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_KimLong.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -598,6 +610,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -613,32 +649,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -982,43 +994,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1063,58 +1075,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1139,23 +1151,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,7 +1177,9 @@
       <c r="B6" s="54">
         <v>44761</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44771</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
@@ -1178,18 +1192,30 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1204,7 +1230,9 @@
       <c r="B7" s="54">
         <v>44761</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44771</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>57</v>
       </c>
@@ -1217,18 +1245,30 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1241,7 +1281,9 @@
       <c r="B8" s="54">
         <v>44761</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44771</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>57</v>
       </c>
@@ -1254,18 +1296,30 @@
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1294,7 +1348,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1323,7 +1377,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1406,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1435,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1412,7 +1466,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1441,7 +1495,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +1524,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1499,7 +1553,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1649,7 +1703,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1894,7 +1948,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2150,7 +2204,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3215,6 +3269,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3226,13 +3287,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3276,43 +3330,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3357,58 +3411,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3433,23 +3487,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="66"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3475,7 +3529,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3506,7 +3560,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3535,7 +3589,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +3618,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3593,7 +3647,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3622,7 +3676,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3651,7 +3705,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3682,7 +3736,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3711,7 +3765,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3740,7 +3794,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3769,7 +3823,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5000,13 +5054,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5018,6 +5065,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_KimLong.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Thể</t>
+  </si>
+  <si>
+    <t>ID mới : 1205220023</t>
+  </si>
+  <si>
+    <t>ID mới : 1205220026</t>
+  </si>
+  <si>
+    <t>ID mới : 1205220027</t>
   </si>
 </sst>
 </file>
@@ -610,6 +619,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -627,30 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:R8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,43 +1003,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1075,58 +1084,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1151,23 +1160,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,7 +1199,9 @@
       <c r="G6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="I6" s="51"/>
       <c r="J6" s="1" t="s">
         <v>65</v>
@@ -1215,7 +1226,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1243,7 +1254,9 @@
       <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="I7" s="51"/>
       <c r="J7" s="1" t="s">
         <v>65</v>
@@ -1268,7 +1281,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1307,9 @@
       <c r="G8" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1" t="s">
         <v>65</v>
@@ -1319,7 +1334,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1363,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1377,7 +1392,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1406,7 +1421,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1450,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1466,7 +1481,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1510,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1524,7 +1539,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1553,7 +1568,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3269,13 +3284,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3287,6 +3295,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3330,43 +3345,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3411,58 +3426,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3487,23 +3502,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="59"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3529,7 +3544,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3560,7 +3575,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3589,7 +3604,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3618,7 +3633,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3647,7 +3662,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3676,7 +3691,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3705,7 +3720,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3736,7 +3751,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3765,7 +3780,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3794,7 +3809,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3823,7 +3838,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5054,6 +5069,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5065,13 +5087,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
